--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H2">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N2">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O2">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P2">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q2">
-        <v>215.3298898443408</v>
+        <v>9318.240253637232</v>
       </c>
       <c r="R2">
-        <v>215.3298898443408</v>
+        <v>83864.16228273509</v>
       </c>
       <c r="S2">
-        <v>0.01107126286539999</v>
+        <v>0.1752551390588907</v>
       </c>
       <c r="T2">
-        <v>0.01107126286539999</v>
+        <v>0.1752551390588907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H3">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N3">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P3">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q3">
-        <v>197.8374674432898</v>
+        <v>1496.472591632952</v>
       </c>
       <c r="R3">
-        <v>197.8374674432898</v>
+        <v>13468.25332469657</v>
       </c>
       <c r="S3">
-        <v>0.01017188374671543</v>
+        <v>0.02814528333738558</v>
       </c>
       <c r="T3">
-        <v>0.01017188374671543</v>
+        <v>0.02814528333738558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H4">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J4">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N4">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P4">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q4">
-        <v>655.2464329925164</v>
+        <v>5263.709599339488</v>
       </c>
       <c r="R4">
-        <v>655.2464329925164</v>
+        <v>47373.38639405539</v>
       </c>
       <c r="S4">
-        <v>0.03368972838150786</v>
+        <v>0.09899853756590779</v>
       </c>
       <c r="T4">
-        <v>0.03368972838150786</v>
+        <v>0.09899853756590779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H5">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J5">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N5">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O5">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P5">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q5">
-        <v>2876.987156989409</v>
+        <v>16684.22574904407</v>
       </c>
       <c r="R5">
-        <v>2876.987156989409</v>
+        <v>150158.0317413966</v>
       </c>
       <c r="S5">
-        <v>0.1479213178367149</v>
+        <v>0.3137927574465905</v>
       </c>
       <c r="T5">
-        <v>0.1479213178367149</v>
+        <v>0.3137927574465904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H6">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J6">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N6">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P6">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q6">
-        <v>2643.273785246931</v>
+        <v>2679.420777578205</v>
       </c>
       <c r="R6">
-        <v>2643.273785246931</v>
+        <v>24114.78699820385</v>
       </c>
       <c r="S6">
-        <v>0.1359048617116948</v>
+        <v>0.05039387783422468</v>
       </c>
       <c r="T6">
-        <v>0.1359048617116948</v>
+        <v>0.05039387783422467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H7">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J7">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N7">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O7">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P7">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q7">
-        <v>8754.639561397313</v>
+        <v>9424.624912253232</v>
       </c>
       <c r="R7">
-        <v>8754.639561397313</v>
+        <v>84821.62421027909</v>
       </c>
       <c r="S7">
-        <v>0.4501229065139332</v>
+        <v>0.1772559951896609</v>
       </c>
       <c r="T7">
-        <v>0.4501229065139332</v>
+        <v>0.1772559951896608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H8">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J8">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.99096614412217</v>
+        <v>57.77686466666668</v>
       </c>
       <c r="N8">
-        <v>9.99096614412217</v>
+        <v>173.330594</v>
       </c>
       <c r="O8">
-        <v>0.2015416609213547</v>
+        <v>0.5795494107546101</v>
       </c>
       <c r="P8">
-        <v>0.2015416609213547</v>
+        <v>0.57954941075461</v>
       </c>
       <c r="Q8">
-        <v>827.5558866207016</v>
+        <v>4811.926529629349</v>
       </c>
       <c r="R8">
-        <v>827.5558866207016</v>
+        <v>43307.33876666413</v>
       </c>
       <c r="S8">
-        <v>0.04254908021923986</v>
+        <v>0.09050151424912893</v>
       </c>
       <c r="T8">
-        <v>0.04254908021923986</v>
+        <v>0.09050151424912892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H9">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J9">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.17934542526182</v>
+        <v>9.278736333333333</v>
       </c>
       <c r="N9">
-        <v>9.17934542526182</v>
+        <v>27.836209</v>
       </c>
       <c r="O9">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="P9">
-        <v>0.1851693316232985</v>
+        <v>0.09307334701450438</v>
       </c>
       <c r="Q9">
-        <v>760.3290044646294</v>
+        <v>772.7764007513134</v>
       </c>
       <c r="R9">
-        <v>760.3290044646294</v>
+        <v>6954.987606761821</v>
       </c>
       <c r="S9">
-        <v>0.03909258616488828</v>
+        <v>0.01453418584289413</v>
       </c>
       <c r="T9">
-        <v>0.03909258616488828</v>
+        <v>0.01453418584289413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.83041646653609</v>
+        <v>83.28466000000002</v>
       </c>
       <c r="H10">
-        <v>82.83041646653609</v>
+        <v>249.85398</v>
       </c>
       <c r="I10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="J10">
-        <v>0.211118038944034</v>
+        <v>0.15615840956734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.4023976086992</v>
+        <v>32.637132</v>
       </c>
       <c r="N10">
-        <v>30.4023976086992</v>
+        <v>97.91139600000001</v>
       </c>
       <c r="O10">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="P10">
-        <v>0.6132890074553469</v>
+        <v>0.3273772422308855</v>
       </c>
       <c r="Q10">
-        <v>2518.243255509776</v>
+        <v>2718.172441995121</v>
       </c>
       <c r="R10">
-        <v>2518.243255509776</v>
+        <v>24463.55197795609</v>
       </c>
       <c r="S10">
-        <v>0.1294763725599059</v>
+        <v>0.05112270947531689</v>
       </c>
       <c r="T10">
-        <v>0.1294763725599059</v>
+        <v>0.05112270947531689</v>
       </c>
     </row>
   </sheetData>
